--- a/TriangleTestHW2.xlsx
+++ b/TriangleTestHW2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fall2020\TriangleTest\TriangleTestingHW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6498A-E96C-4390-AFF2-F96A2252559B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CA1F31-A7D0-4B39-BB24-3F94C1BAFBFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7092" yWindow="0" windowWidth="13536" windowHeight="12960" activeTab="2" xr2:uid="{59AB2921-51AA-4C54-AD6E-9F830CA37E57}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{59AB2921-51AA-4C54-AD6E-9F830CA37E57}"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AAC09B0-8218-4BBF-B111-70523DBEA073}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
